--- a/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="o554F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="o554F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>1.000891458384804</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.338175734288955</v>
+      </c>
+      <c r="D16">
+        <v>0.4285253955053088</v>
+      </c>
+      <c r="E16">
+        <v>1.047769459359357</v>
+      </c>
+      <c r="F16">
+        <v>1.338175734288955</v>
+      </c>
+      <c r="G16">
+        <v>0.6975313767768457</v>
+      </c>
+      <c r="H16">
+        <v>1.123707654139102</v>
+      </c>
+      <c r="I16">
+        <v>1.124106216138495</v>
+      </c>
+      <c r="J16">
+        <v>0.4285253955053088</v>
+      </c>
+      <c r="K16">
+        <v>0.7381474274323327</v>
+      </c>
+      <c r="L16">
+        <v>1.038161580860644</v>
+      </c>
+      <c r="M16">
+        <v>0.9599693060346773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.338175734288955</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4158600000000001</v>
+        <v>1.338175734288955</v>
       </c>
       <c r="D10">
-        <v>0.4223920000000009</v>
+        <v>0.4285253955053088</v>
       </c>
       <c r="E10">
-        <v>1.359696000000003</v>
+        <v>1.047769459359357</v>
       </c>
       <c r="F10">
-        <v>0.4158600000000001</v>
+        <v>1.338175734288955</v>
       </c>
       <c r="G10">
-        <v>0.5547760000000009</v>
+        <v>0.6975313767768457</v>
       </c>
       <c r="H10">
-        <v>2.934035999999994</v>
+        <v>1.123707654139102</v>
       </c>
       <c r="I10">
-        <v>1.148408000000002</v>
+        <v>1.124106216138495</v>
       </c>
       <c r="J10">
-        <v>0.4223920000000009</v>
+        <v>0.4285253955053088</v>
       </c>
       <c r="K10">
-        <v>0.8910440000000021</v>
+        <v>0.7381474274323327</v>
       </c>
       <c r="L10">
-        <v>0.653452000000001</v>
+        <v>1.038161580860644</v>
       </c>
       <c r="M10">
-        <v>1.139194666666667</v>
+        <v>0.9599693060346773</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.9724960408973788</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7462665011678059</v>
       </c>
       <c r="E11">
-        <v>1.557912500000001</v>
+        <v>1.008558021985713</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.9724960408973788</v>
       </c>
       <c r="G11">
-        <v>0.03</v>
+        <v>1.074730772733732</v>
       </c>
       <c r="H11">
-        <v>4.595274999999999</v>
+        <v>0.7706434434009836</v>
       </c>
       <c r="I11">
-        <v>1.32</v>
+        <v>0.9844936832235512</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7462665011678059</v>
       </c>
       <c r="K11">
-        <v>0.7789562500000007</v>
+        <v>0.8774122615767594</v>
       </c>
       <c r="L11">
-        <v>0.5394781250000004</v>
+        <v>0.924954151237069</v>
       </c>
       <c r="M11">
-        <v>1.30053125</v>
+        <v>0.9261980772348607</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6029230527487999</v>
+        <v>0.9664269019472128</v>
       </c>
       <c r="D12">
-        <v>0.4127023499264019</v>
+        <v>0.7478122811776849</v>
       </c>
       <c r="E12">
-        <v>1.329164069683203</v>
+        <v>1.010452658843318</v>
       </c>
       <c r="F12">
-        <v>0.6029230527487999</v>
+        <v>0.9664269019472128</v>
       </c>
       <c r="G12">
-        <v>0.4278289829888</v>
+        <v>1.076282866126013</v>
       </c>
       <c r="H12">
-        <v>3.035065340927988</v>
+        <v>0.770957881970413</v>
       </c>
       <c r="I12">
-        <v>1.181983142911999</v>
+        <v>0.9841872096796755</v>
       </c>
       <c r="J12">
-        <v>0.4127023499264019</v>
+        <v>0.7478122811776849</v>
       </c>
       <c r="K12">
-        <v>0.8709332098048024</v>
+        <v>0.8791324700105017</v>
       </c>
       <c r="L12">
-        <v>0.736928131276801</v>
+        <v>0.9227796859788572</v>
       </c>
       <c r="M12">
-        <v>1.164944489864532</v>
+        <v>0.9260199666240529</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9960718074545457</v>
+        <v>0.9717472491270501</v>
       </c>
       <c r="D13">
-        <v>0.9917282153370388</v>
+        <v>0.7461597935359956</v>
       </c>
       <c r="E13">
-        <v>0.9899973630977493</v>
+        <v>1.009338267389205</v>
       </c>
       <c r="F13">
-        <v>0.9960718074545457</v>
+        <v>0.9717472491270501</v>
       </c>
       <c r="G13">
-        <v>0.9880336093527327</v>
+        <v>1.074766511103905</v>
       </c>
       <c r="H13">
-        <v>0.9924776179368552</v>
+        <v>0.7696244061636348</v>
       </c>
       <c r="I13">
-        <v>0.9916427983926899</v>
+        <v>0.9844512123208368</v>
       </c>
       <c r="J13">
-        <v>0.9917282153370388</v>
+        <v>0.7461597935359956</v>
       </c>
       <c r="K13">
-        <v>0.990862789217394</v>
+        <v>0.8777490304626002</v>
       </c>
       <c r="L13">
-        <v>0.9934672983359699</v>
+        <v>0.9247481397948252</v>
       </c>
       <c r="M13">
-        <v>0.9916585685952688</v>
+        <v>0.9260145732734378</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8379967016739094</v>
+        <v>0.4158600000000001</v>
       </c>
       <c r="D14">
-        <v>1.073797630231212</v>
+        <v>0.4223920000000009</v>
       </c>
       <c r="E14">
-        <v>1.049090452864662</v>
+        <v>1.359696000000003</v>
       </c>
       <c r="F14">
-        <v>0.8379967016739094</v>
+        <v>0.4158600000000001</v>
       </c>
       <c r="G14">
-        <v>1.029309826225018</v>
+        <v>0.5547760000000009</v>
       </c>
       <c r="H14">
-        <v>1.043383958349317</v>
+        <v>2.934035999999994</v>
       </c>
       <c r="I14">
-        <v>0.9824689862586228</v>
+        <v>1.148408000000002</v>
       </c>
       <c r="J14">
-        <v>1.073797630231212</v>
+        <v>0.4223920000000009</v>
       </c>
       <c r="K14">
-        <v>1.061444041547937</v>
+        <v>0.8910440000000021</v>
       </c>
       <c r="L14">
-        <v>0.949720371610923</v>
+        <v>0.653452000000001</v>
       </c>
       <c r="M14">
-        <v>1.002674592600457</v>
+        <v>1.139194666666667</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9755934041408602</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
-        <v>1.250216812077622</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9248167334917563</v>
+        <v>1.557912500000001</v>
       </c>
       <c r="F15">
-        <v>0.9755934041408602</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>1.109966997929464</v>
+        <v>0.03</v>
       </c>
       <c r="H15">
-        <v>0.8135559238439476</v>
+        <v>4.595274999999999</v>
       </c>
       <c r="I15">
-        <v>0.9311988788251736</v>
+        <v>1.32</v>
       </c>
       <c r="J15">
-        <v>1.250216812077622</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.087516772784689</v>
+        <v>0.7789562500000007</v>
       </c>
       <c r="L15">
-        <v>1.031555088462775</v>
+        <v>0.5394781250000004</v>
       </c>
       <c r="M15">
-        <v>1.000891458384804</v>
+        <v>1.30053125</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.338175734288955</v>
+        <v>0.6029230527487999</v>
       </c>
       <c r="D16">
-        <v>0.4285253955053088</v>
+        <v>0.4127023499264019</v>
       </c>
       <c r="E16">
-        <v>1.047769459359357</v>
+        <v>1.329164069683203</v>
       </c>
       <c r="F16">
-        <v>1.338175734288955</v>
+        <v>0.6029230527487999</v>
       </c>
       <c r="G16">
-        <v>0.6975313767768457</v>
+        <v>0.4278289829888</v>
       </c>
       <c r="H16">
-        <v>1.123707654139102</v>
+        <v>3.035065340927988</v>
       </c>
       <c r="I16">
-        <v>1.124106216138495</v>
+        <v>1.181983142911999</v>
       </c>
       <c r="J16">
-        <v>0.4285253955053088</v>
+        <v>0.4127023499264019</v>
       </c>
       <c r="K16">
-        <v>0.7381474274323327</v>
+        <v>0.8709332098048024</v>
       </c>
       <c r="L16">
-        <v>1.038161580860644</v>
+        <v>0.736928131276801</v>
       </c>
       <c r="M16">
-        <v>0.9599693060346773</v>
+        <v>1.164944489864532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9960718074545457</v>
+      </c>
+      <c r="D17">
+        <v>0.9917282153370388</v>
+      </c>
+      <c r="E17">
+        <v>0.9899973630977493</v>
+      </c>
+      <c r="F17">
+        <v>0.9960718074545457</v>
+      </c>
+      <c r="G17">
+        <v>0.9880336093527327</v>
+      </c>
+      <c r="H17">
+        <v>0.9924776179368552</v>
+      </c>
+      <c r="I17">
+        <v>0.9916427983926899</v>
+      </c>
+      <c r="J17">
+        <v>0.9917282153370388</v>
+      </c>
+      <c r="K17">
+        <v>0.990862789217394</v>
+      </c>
+      <c r="L17">
+        <v>0.9934672983359699</v>
+      </c>
+      <c r="M17">
+        <v>0.9916585685952688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.8379967016739094</v>
+      </c>
+      <c r="D18">
+        <v>1.073797630231212</v>
+      </c>
+      <c r="E18">
+        <v>1.049090452864662</v>
+      </c>
+      <c r="F18">
+        <v>0.8379967016739094</v>
+      </c>
+      <c r="G18">
+        <v>1.029309826225018</v>
+      </c>
+      <c r="H18">
+        <v>1.043383958349317</v>
+      </c>
+      <c r="I18">
+        <v>0.9824689862586228</v>
+      </c>
+      <c r="J18">
+        <v>1.073797630231212</v>
+      </c>
+      <c r="K18">
+        <v>1.061444041547937</v>
+      </c>
+      <c r="L18">
+        <v>0.949720371610923</v>
+      </c>
+      <c r="M18">
+        <v>1.002674592600457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9755934041408602</v>
+      </c>
+      <c r="D19">
+        <v>1.250216812077622</v>
+      </c>
+      <c r="E19">
+        <v>0.9248167334917563</v>
+      </c>
+      <c r="F19">
+        <v>0.9755934041408602</v>
+      </c>
+      <c r="G19">
+        <v>1.109966997929464</v>
+      </c>
+      <c r="H19">
+        <v>0.8135559238439476</v>
+      </c>
+      <c r="I19">
+        <v>0.9311988788251736</v>
+      </c>
+      <c r="J19">
+        <v>1.250216812077622</v>
+      </c>
+      <c r="K19">
+        <v>1.087516772784689</v>
+      </c>
+      <c r="L19">
+        <v>1.031555088462775</v>
+      </c>
+      <c r="M19">
+        <v>1.000891458384804</v>
       </c>
     </row>
   </sheetData>
